--- a/biology/Zoologie/Harmonicon_rufescens/Harmonicon_rufescens.xlsx
+++ b/biology/Zoologie/Harmonicon_rufescens/Harmonicon_rufescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harmonicon rufescens est une espèce d'araignées mygalomorphes de la famille des Dipluridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harmonicon rufescens est une espèce d'araignées mygalomorphes de la famille des Dipluridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>F. O. Pickard-Cambridge, 1896 : On the Theraphosidae of the lower Amazons: being an account of the new genera and species of this group of spiders discovered during the expedition of the steamship "Faraday" up the river Amazons. Proceedings of the Zoological Society of London, vol. 1896, p. 716-766 (texte intégral).</t>
         </is>
